--- a/NC State Senate/SD19/Results.xlsx
+++ b/NC State Senate/SD19/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echen\Documents\GitHub\QGIS-Politics\NC State Senate\SD19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0455CEA1-B14E-4B5F-97EF-329981AD12CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5779F1AC-6074-4A6B-90B9-29A6685C5C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 Results" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="2016 Cumberland" sheetId="8" r:id="rId3"/>
     <sheet name="2012 Results" sheetId="4" r:id="rId4"/>
     <sheet name="2012 Cumberland" sheetId="10" r:id="rId5"/>
+    <sheet name="2016 Gov Results" sheetId="16" r:id="rId6"/>
+    <sheet name="2016 Gov Cumberland" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="162">
   <si>
     <t>Precinct</t>
   </si>
@@ -4698,7 +4700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D0C038-DB48-4D91-BD68-58289A5714EF}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -7169,4 +7171,2478 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C82C543-9D88-4D86-8AAD-F840C501D5CC}">
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>1447.7003243871836</v>
+      </c>
+      <c r="C2">
+        <v>597.03610903433093</v>
+      </c>
+      <c r="D2">
+        <v>2101.4400009095616</v>
+      </c>
+      <c r="E2" s="2">
+        <f>B2/D2</f>
+        <v>0.6889087120072801</v>
+      </c>
+      <c r="F2" s="2">
+        <f>C2/D2</f>
+        <v>0.28410809196356646</v>
+      </c>
+      <c r="G2" s="2">
+        <f>(B2-C2)/D2</f>
+        <v>0.40480062004371364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>1110.2988340422928</v>
+      </c>
+      <c r="C3">
+        <v>2100.2877407100568</v>
+      </c>
+      <c r="D3">
+        <v>3264.0805063448465</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E52" si="0">B3/D3</f>
+        <v>0.34015669401660004</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F52" si="1">C3/D3</f>
+        <v>0.64345463802974101</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G52" si="2">(B3-C3)/D3</f>
+        <v>-0.30329794401314092</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>1184.6780763227957</v>
+      </c>
+      <c r="C4">
+        <v>195.10287134514741</v>
+      </c>
+      <c r="D4">
+        <v>1404.3881562004919</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84355459072503725</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1389237515880149</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.7046308391370224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>382.67581173302324</v>
+      </c>
+      <c r="C5">
+        <v>372.08143223746691</v>
+      </c>
+      <c r="D5">
+        <v>785.78372429413866</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.48699890300830162</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47351633882682387</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3482564181477729E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>1035.9195917617897</v>
+      </c>
+      <c r="C6">
+        <v>171.64788134737012</v>
+      </c>
+      <c r="D6">
+        <v>1228.9650457461587</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84292030546144403</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13966864390610487</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.70325166155533925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>371.89621140251552</v>
+      </c>
+      <c r="C7">
+        <v>377.41211178241633</v>
+      </c>
+      <c r="D7">
+        <v>784.61431803597998</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47398601179421951</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.48101609046230709</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.0300786680875622E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>298.5949291550632</v>
+      </c>
+      <c r="C8">
+        <v>459.5045767746368</v>
+      </c>
+      <c r="D8">
+        <v>775.21756403929908</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.38517565004490295</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.59274273196336213</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.20756708191845924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>354.64885087370322</v>
+      </c>
+      <c r="C9">
+        <v>619.42496312311835</v>
+      </c>
+      <c r="D9">
+        <v>989.05211484272081</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.35857448313540036</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.62628142018746846</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.26770693705206811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>443.0415735838663</v>
+      </c>
+      <c r="C10">
+        <v>324.10531633292248</v>
+      </c>
+      <c r="D10">
+        <v>787.47458392193766</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56261063230427388</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41157558980348125</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15103504250079258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11">
+        <v>386.98765186522633</v>
+      </c>
+      <c r="C11">
+        <v>868.90076582674942</v>
+      </c>
+      <c r="D11">
+        <v>1275.1462330652748</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30348491947857748</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.68141264373893207</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.37792772426035465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>1306.4875600575328</v>
+      </c>
+      <c r="C12">
+        <v>88.489280446159754</v>
+      </c>
+      <c r="D12">
+        <v>1422.7936849317912</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91825510184223647</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>6.2194035146003572E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.85606106669623294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13">
+        <v>756.7279432016403</v>
+      </c>
+      <c r="C13">
+        <v>1055.4745498999778</v>
+      </c>
+      <c r="D13">
+        <v>1850.718123848216</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40888341311975085</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.57030540539869967</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.16142199227894888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>764.2736634329957</v>
+      </c>
+      <c r="C14">
+        <v>1095.9877144415932</v>
+      </c>
+      <c r="D14">
+        <v>1894.4974940937873</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40341761644745688</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.57851103939614723</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.17509342294869035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>381.59785169997247</v>
+      </c>
+      <c r="C15">
+        <v>727.10468993109578</v>
+      </c>
+      <c r="D15">
+        <v>1125.8205997406674</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33895085219427812</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.64584418698555013</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.30689333479127207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>450.5872938152217</v>
+      </c>
+      <c r="C16">
+        <v>39.447028632625432</v>
+      </c>
+      <c r="D16">
+        <v>497.5234728707967</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90566037259559817</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>7.9286768933753499E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.82637360366184476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>1473.5713651804022</v>
+      </c>
+      <c r="C17">
+        <v>604.49906039726</v>
+      </c>
+      <c r="D17">
+        <v>2128.3547212746098</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.69235233697225196</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.28402176308056537</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40833057389168664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18">
+        <v>515.26489579826784</v>
+      </c>
+      <c r="C18">
+        <v>327.30372405989209</v>
+      </c>
+      <c r="D18">
+        <v>875.73485744550828</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58838002326558037</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.37374751190631716</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.21463251135926315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>1463.8697248829451</v>
+      </c>
+      <c r="C19">
+        <v>544.79544949382694</v>
+      </c>
+      <c r="D19">
+        <v>2061.0892273374193</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.71024083065730181</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.26432404879317672</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.44591678186412509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20">
+        <v>862.36802644061572</v>
+      </c>
+      <c r="C20">
+        <v>445.64480995776842</v>
+      </c>
+      <c r="D20">
+        <v>1349.7381030405318</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.63891507878304254</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.33017131912766784</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.30874375965537471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>681.27074088808638</v>
+      </c>
+      <c r="C21">
+        <v>506.41455677019138</v>
+      </c>
+      <c r="D21">
+        <v>1232.6202001959755</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.55270126254605467</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41084395395246326</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>0.14185730859359147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>612.2812987728372</v>
+      </c>
+      <c r="C22">
+        <v>829.45373719412396</v>
+      </c>
+      <c r="D22">
+        <v>1471.6916376587596</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41603912334983761</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.56360566029556314</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.14756653694572558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>675.88094072283252</v>
+      </c>
+      <c r="C23">
+        <v>583.17634221746243</v>
+      </c>
+      <c r="D23">
+        <v>1279.3849769454439</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5282858192820985</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.45582553549269206</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="2"/>
+        <v>7.2460283789406443E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>686.66054105334024</v>
+      </c>
+      <c r="C24">
+        <v>1350.7941966901735</v>
+      </c>
+      <c r="D24">
+        <v>2067.4113394353121</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3321354236360593</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.65337466759717311</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.32123924396111381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>549.75961685589255</v>
+      </c>
+      <c r="C25">
+        <v>845.44577582897216</v>
+      </c>
+      <c r="D25">
+        <v>1421.9523584811134</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.38662309153812241</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.59456687897198734</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.20794378743386499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>1403.5039630321021</v>
+      </c>
+      <c r="C26">
+        <v>1705.8174543838024</v>
+      </c>
+      <c r="D26">
+        <v>3185.2828002772508</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44062146158888604</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.53553092812836778</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="2"/>
+        <v>-9.4909466539481721E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>807.39206475502647</v>
+      </c>
+      <c r="C27">
+        <v>867.83462991775957</v>
+      </c>
+      <c r="D27">
+        <v>1727.6507476334332</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46733523303885727</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.50232064038784163</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.49854073489844E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>827.87330538299113</v>
+      </c>
+      <c r="C28">
+        <v>1428.6221180464347</v>
+      </c>
+      <c r="D28">
+        <v>2313.1989909174731</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.35789108876216297</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.61759585909200454</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.25970477032984157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>905.48642776264649</v>
+      </c>
+      <c r="C29">
+        <v>454.17389722968744</v>
+      </c>
+      <c r="D29">
+        <v>1394.9663198433821</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.64910988522239643</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.32558054683404775</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="2"/>
+        <v>0.32352933838834874</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1083.3498332160234</v>
+      </c>
+      <c r="C30">
+        <v>1704.7513184748127</v>
+      </c>
+      <c r="D30">
+        <v>2829.8264183329838</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.38283260987230855</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="1"/>
+        <v>0.60242257526136922</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.21958996538906062</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>1487.5848456100621</v>
+      </c>
+      <c r="C31">
+        <v>722.84014629513638</v>
+      </c>
+      <c r="D31">
+        <v>2267.1285593932457</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.65615372337252287</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.31883509353725886</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33731862983526406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>850.51046607705723</v>
+      </c>
+      <c r="C32">
+        <v>608.76360403321951</v>
+      </c>
+      <c r="D32">
+        <v>1500.9993367524244</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56662947494515836</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.40557220055163107</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16105727439352732</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>362.19457110505857</v>
+      </c>
+      <c r="C33">
+        <v>293.18737497221605</v>
+      </c>
+      <c r="D33">
+        <v>676.77951871427354</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.53517365861358435</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="1"/>
+        <v>0.43320958578830088</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10196407282528352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34">
+        <v>352.49293080760168</v>
+      </c>
+      <c r="C34">
+        <v>510.67910040615089</v>
+      </c>
+      <c r="D34">
+        <v>879.22021069150173</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40091540949720433</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58083184871797322</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.17991643922076891</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>513.1089757321663</v>
+      </c>
+      <c r="C35">
+        <v>428.58663541393037</v>
+      </c>
+      <c r="D35">
+        <v>966.30281967864539</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5310022544514631</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="1"/>
+        <v>0.44353242760531481</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="2"/>
+        <v>8.7469826846148249E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>523.88857606267402</v>
+      </c>
+      <c r="C36">
+        <v>680.19470993554125</v>
+      </c>
+      <c r="D36">
+        <v>1244.738674008513</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42088238037592379</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54645583377357909</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.12557345339765527</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37">
+        <v>766.42958349909725</v>
+      </c>
+      <c r="C37">
+        <v>343.29576269474023</v>
+      </c>
+      <c r="D37">
+        <v>1132.1927974626865</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6769426419393525</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30321316604741444</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="2"/>
+        <v>0.37372947589193806</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>862.36802644061572</v>
+      </c>
+      <c r="C38">
+        <v>2151.462264341571</v>
+      </c>
+      <c r="D38">
+        <v>3075.8832514294836</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28036435584472835</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="1"/>
+        <v>0.69946161426695963</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.41909725842223128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39">
+        <v>228.52752700676317</v>
+      </c>
+      <c r="C39">
+        <v>603.43292448827015</v>
+      </c>
+      <c r="D39">
+        <v>843.72911644538272</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.27085414329369834</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="1"/>
+        <v>0.71519746412275476</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.44434332082905637</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40">
+        <v>504.48529546776018</v>
+      </c>
+      <c r="C40">
+        <v>819.85851401321509</v>
+      </c>
+      <c r="D40">
+        <v>1343.6016248542744</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>0.37547237673404577</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="1"/>
+        <v>0.61019464314962857</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.23472226641558278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41">
+        <v>232.83936713896625</v>
+      </c>
+      <c r="C41">
+        <v>646.07836084786516</v>
+      </c>
+      <c r="D41">
+        <v>900.31530062383035</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25861980461470707</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="1"/>
+        <v>0.71761344098028335</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.45899363636557627</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>225.29364690761085</v>
+      </c>
+      <c r="C42">
+        <v>635.41700175796643</v>
+      </c>
+      <c r="D42">
+        <v>875.68894951147649</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25727588207353325</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="1"/>
+        <v>0.72561952747313829</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.46834364539960499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43">
+        <v>1347.450041313462</v>
+      </c>
+      <c r="C43">
+        <v>832.65214492109362</v>
+      </c>
+      <c r="D43">
+        <v>2225.0370887722534</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60558542961500361</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3742194452050866</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23136598440991701</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44">
+        <v>725.46710224316791</v>
+      </c>
+      <c r="C44">
+        <v>664.20267130069305</v>
+      </c>
+      <c r="D44">
+        <v>1435.6745547134087</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>0.50531445295970068</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46264152911262124</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="2"/>
+        <v>4.267292384707936E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45">
+        <v>828.95126541604191</v>
+      </c>
+      <c r="C45">
+        <v>560.78748812867514</v>
+      </c>
+      <c r="D45">
+        <v>1426.1146270276151</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58126552361627948</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="1"/>
+        <v>0.39322749903876841</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="2"/>
+        <v>0.18803802457751109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46">
+        <v>805.23614468892492</v>
+      </c>
+      <c r="C46">
+        <v>1032.0195599022006</v>
+      </c>
+      <c r="D46">
+        <v>1883.2604857606732</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42757555355582139</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5479961841207297</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.12042063056490826</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>860.21210637451418</v>
+      </c>
+      <c r="C47">
+        <v>965.91913354482813</v>
+      </c>
+      <c r="D47">
+        <v>1873.2058997207398</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45921919555279844</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="1"/>
+        <v>0.51565027298324695</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.6431077430448465E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48">
+        <v>1176.0543960583898</v>
+      </c>
+      <c r="C48">
+        <v>1279.3630907878519</v>
+      </c>
+      <c r="D48">
+        <v>2519.6102047572381</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46676045121499316</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="1"/>
+        <v>0.50776230719033666</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="2"/>
+        <v>-4.1001855975343532E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49">
+        <v>1294.6299996939742</v>
+      </c>
+      <c r="C49">
+        <v>1345.4635171452242</v>
+      </c>
+      <c r="D49">
+        <v>2710.7055065412947</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47759891163752721</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49635178513432793</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.8752873496800684E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50">
+        <v>757.80590323469107</v>
+      </c>
+      <c r="C50">
+        <v>1451.0109721352221</v>
+      </c>
+      <c r="D50">
+        <v>2243.0529915891116</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33784574242172338</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="1"/>
+        <v>0.64689107995939055</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.30904533753766716</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51">
+        <v>708.21974171435568</v>
+      </c>
+      <c r="C51">
+        <v>1057.6068217179575</v>
+      </c>
+      <c r="D51">
+        <v>1791.5036505967119</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="0"/>
+        <v>0.39532140583607672</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="1"/>
+        <v>0.59034589260573989</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.19502448676966322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52">
+        <f>SUM(B2:B51)</f>
+        <v>38638.399424671785</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:D52" si="3">SUM(C2:C51)</f>
+        <v>38923.555901311396</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="3"/>
+        <v>79341.163490749663</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="0"/>
+        <v>0.48699058250105715</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49058463713920036</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.594054638143258E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C203F4-187D-4A7B-9356-C755B5A3C8B5}">
+  <dimension ref="A1:D78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:D78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>1447.7003243871836</v>
+      </c>
+      <c r="C2">
+        <v>597.03610903433093</v>
+      </c>
+      <c r="D2">
+        <v>2101.4400009095616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>1110.2988340422928</v>
+      </c>
+      <c r="C3">
+        <v>2100.2877407100568</v>
+      </c>
+      <c r="D3">
+        <v>3264.0805063448465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>1184.6780763227957</v>
+      </c>
+      <c r="C4">
+        <v>195.10287134514741</v>
+      </c>
+      <c r="D4">
+        <v>1404.3881562004919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>438.72973345166326</v>
+      </c>
+      <c r="C5">
+        <v>251.60807452161086</v>
+      </c>
+      <c r="D5">
+        <v>710.66550197842309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>382.67581173302324</v>
+      </c>
+      <c r="C6">
+        <v>372.08143223746691</v>
+      </c>
+      <c r="D6">
+        <v>785.78372429413866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>1035.9195917617897</v>
+      </c>
+      <c r="C7">
+        <v>171.64788134737012</v>
+      </c>
+      <c r="D7">
+        <v>1228.9650457461587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>371.89621140251552</v>
+      </c>
+      <c r="C8">
+        <v>377.41211178241633</v>
+      </c>
+      <c r="D8">
+        <v>784.61431803597998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>298.5949291550632</v>
+      </c>
+      <c r="C9">
+        <v>459.5045767746368</v>
+      </c>
+      <c r="D9">
+        <v>775.21756403929908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>354.64885087370322</v>
+      </c>
+      <c r="C10">
+        <v>619.42496312311835</v>
+      </c>
+      <c r="D10">
+        <v>989.05211484272081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>443.0415735838663</v>
+      </c>
+      <c r="C11">
+        <v>324.10531633292248</v>
+      </c>
+      <c r="D11">
+        <v>787.47458392193766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12">
+        <v>386.98765186522633</v>
+      </c>
+      <c r="C12">
+        <v>868.90076582674942</v>
+      </c>
+      <c r="D12">
+        <v>1275.1462330652748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>1306.4875600575328</v>
+      </c>
+      <c r="C13">
+        <v>88.489280446159754</v>
+      </c>
+      <c r="D13">
+        <v>1422.7936849317912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14">
+        <v>756.7279432016403</v>
+      </c>
+      <c r="C14">
+        <v>1055.4745498999778</v>
+      </c>
+      <c r="D14">
+        <v>1850.718123848216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>764.2736634329957</v>
+      </c>
+      <c r="C15">
+        <v>1095.9877144415932</v>
+      </c>
+      <c r="D15">
+        <v>1894.4974940937873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>1233.1862778100804</v>
+      </c>
+      <c r="C16">
+        <v>75.695649538281231</v>
+      </c>
+      <c r="D16">
+        <v>1324.9301068261109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>1345.2941212473604</v>
+      </c>
+      <c r="C17">
+        <v>246.2773949766615</v>
+      </c>
+      <c r="D17">
+        <v>1618.3184820202705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>381.59785169997247</v>
+      </c>
+      <c r="C18">
+        <v>727.10468993109578</v>
+      </c>
+      <c r="D18">
+        <v>1125.8205997406674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>450.5872938152217</v>
+      </c>
+      <c r="C19">
+        <v>39.447028632625432</v>
+      </c>
+      <c r="D19">
+        <v>497.5234728707967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>1473.5713651804022</v>
+      </c>
+      <c r="C20">
+        <v>604.49906039726</v>
+      </c>
+      <c r="D20">
+        <v>2128.3547212746098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21">
+        <v>515.26489579826784</v>
+      </c>
+      <c r="C21">
+        <v>327.30372405989209</v>
+      </c>
+      <c r="D21">
+        <v>875.73485744550828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>664.02338035927414</v>
+      </c>
+      <c r="C22">
+        <v>495.7531976802926</v>
+      </c>
+      <c r="D22">
+        <v>1201.5018446817144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1463.8697248829451</v>
+      </c>
+      <c r="C23">
+        <v>544.79544949382694</v>
+      </c>
+      <c r="D23">
+        <v>2061.0892273374193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>1606.1604492456468</v>
+      </c>
+      <c r="C24">
+        <v>504.28228495221163</v>
+      </c>
+      <c r="D24">
+        <v>2182.1246025318046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>862.36802644061572</v>
+      </c>
+      <c r="C25">
+        <v>445.64480995776842</v>
+      </c>
+      <c r="D25">
+        <v>1349.7381030405318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>681.27074088808638</v>
+      </c>
+      <c r="C26">
+        <v>506.41455677019138</v>
+      </c>
+      <c r="D26">
+        <v>1232.6202001959755</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>631.68457936775098</v>
+      </c>
+      <c r="C27">
+        <v>143.92834771363334</v>
+      </c>
+      <c r="D27">
+        <v>791.66110655913349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28">
+        <v>892.55090736603722</v>
+      </c>
+      <c r="C28">
+        <v>582.11020630847258</v>
+      </c>
+      <c r="D28">
+        <v>1505.6875939981583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>612.2812987728372</v>
+      </c>
+      <c r="C29">
+        <v>829.45373719412396</v>
+      </c>
+      <c r="D29">
+        <v>1471.6916376587596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>1366.8533219083758</v>
+      </c>
+      <c r="C30">
+        <v>560.78748812867514</v>
+      </c>
+      <c r="D30">
+        <v>1970.4359553110487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>1471.4154451143006</v>
+      </c>
+      <c r="C31">
+        <v>432.85117904988988</v>
+      </c>
+      <c r="D31">
+        <v>1940.6424976470887</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>675.88094072283252</v>
+      </c>
+      <c r="C32">
+        <v>583.17634221746243</v>
+      </c>
+      <c r="D32">
+        <v>1279.3849769454439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>686.66054105334024</v>
+      </c>
+      <c r="C33">
+        <v>1350.7941966901735</v>
+      </c>
+      <c r="D33">
+        <v>2067.4113394353121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>549.75961685589255</v>
+      </c>
+      <c r="C34">
+        <v>845.44577582897216</v>
+      </c>
+      <c r="D34">
+        <v>1421.9523584811134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>1403.5039630321021</v>
+      </c>
+      <c r="C35">
+        <v>1705.8174543838024</v>
+      </c>
+      <c r="D35">
+        <v>3185.2828002772508</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>807.39206475502647</v>
+      </c>
+      <c r="C36">
+        <v>867.83462991775957</v>
+      </c>
+      <c r="D36">
+        <v>1727.6507476334332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>827.87330538299113</v>
+      </c>
+      <c r="C37">
+        <v>1428.6221180464347</v>
+      </c>
+      <c r="D37">
+        <v>2313.1989909174731</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38">
+        <v>1060.7126725219573</v>
+      </c>
+      <c r="C38">
+        <v>363.55234496554789</v>
+      </c>
+      <c r="D38">
+        <v>1474.5493131844526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39">
+        <v>1030.5297915965357</v>
+      </c>
+      <c r="C39">
+        <v>357.15552951160868</v>
+      </c>
+      <c r="D39">
+        <v>1418.7118014317928</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>692.0503412185941</v>
+      </c>
+      <c r="C40">
+        <v>775.08080583564026</v>
+      </c>
+      <c r="D40">
+        <v>1566.6298598162791</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>905.48642776264649</v>
+      </c>
+      <c r="C41">
+        <v>454.17389722968744</v>
+      </c>
+      <c r="D41">
+        <v>1394.9663198433821</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>1083.3498332160234</v>
+      </c>
+      <c r="C42">
+        <v>1704.7513184748127</v>
+      </c>
+      <c r="D42">
+        <v>2829.8264183329838</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>1930.6264191939283</v>
+      </c>
+      <c r="C43">
+        <v>941.39800763806102</v>
+      </c>
+      <c r="D43">
+        <v>2935.1472661111361</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <v>1688.0854117575052</v>
+      </c>
+      <c r="C44">
+        <v>1059.7390935359374</v>
+      </c>
+      <c r="D44">
+        <v>2814.1569804681394</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>932.43542858891578</v>
+      </c>
+      <c r="C45">
+        <v>622.62337085008789</v>
+      </c>
+      <c r="D45">
+        <v>1603.2033378722513</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46">
+        <v>969.08606971264192</v>
+      </c>
+      <c r="C46">
+        <v>935.00119218412181</v>
+      </c>
+      <c r="D46">
+        <v>1956.511314857411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47">
+        <v>1400.2700829329497</v>
+      </c>
+      <c r="C47">
+        <v>1191.9399462506819</v>
+      </c>
+      <c r="D47">
+        <v>2636.0750530894793</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48">
+        <v>998.19099060501264</v>
+      </c>
+      <c r="C48">
+        <v>249.47580270363113</v>
+      </c>
+      <c r="D48">
+        <v>1279.763152264142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>1386.2566025032897</v>
+      </c>
+      <c r="C49">
+        <v>294.25351088120595</v>
+      </c>
+      <c r="D49">
+        <v>1713.6763509718439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>1487.5848456100621</v>
+      </c>
+      <c r="C50">
+        <v>722.84014629513638</v>
+      </c>
+      <c r="D50">
+        <v>2267.1285593932457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51">
+        <v>850.51046607705723</v>
+      </c>
+      <c r="C51">
+        <v>608.76360403321951</v>
+      </c>
+      <c r="D51">
+        <v>1500.9993367524244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>362.19457110505857</v>
+      </c>
+      <c r="C52">
+        <v>293.18737497221605</v>
+      </c>
+      <c r="D52">
+        <v>676.77951871427354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>352.49293080760168</v>
+      </c>
+      <c r="C53">
+        <v>510.67910040615089</v>
+      </c>
+      <c r="D53">
+        <v>879.22021069150173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>513.1089757321663</v>
+      </c>
+      <c r="C54">
+        <v>428.58663541393037</v>
+      </c>
+      <c r="D54">
+        <v>966.30281967864539</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>523.88857606267402</v>
+      </c>
+      <c r="C55">
+        <v>680.19470993554125</v>
+      </c>
+      <c r="D55">
+        <v>1244.738674008513</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56">
+        <v>766.42958349909725</v>
+      </c>
+      <c r="C56">
+        <v>343.29576269474023</v>
+      </c>
+      <c r="D56">
+        <v>1132.1927974626865</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1187.9119564219482</v>
+      </c>
+      <c r="C57">
+        <v>453.10776132069753</v>
+      </c>
+      <c r="D57">
+        <v>1688.0943775440433</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58">
+        <v>868.83578663892035</v>
+      </c>
+      <c r="C58">
+        <v>626.88791448604741</v>
+      </c>
+      <c r="D58">
+        <v>1532.0995746078659</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>1612.6282094439514</v>
+      </c>
+      <c r="C59">
+        <v>256.93875406656025</v>
+      </c>
+      <c r="D59">
+        <v>1904.8729583615598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60">
+        <v>1167.4307157939836</v>
+      </c>
+      <c r="C60">
+        <v>363.55234496554789</v>
+      </c>
+      <c r="D60">
+        <v>1555.5902692920804</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>895.78478746518954</v>
+      </c>
+      <c r="C61">
+        <v>488.29024631736348</v>
+      </c>
+      <c r="D61">
+        <v>1421.520785897301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62">
+        <v>862.36802644061572</v>
+      </c>
+      <c r="C62">
+        <v>2151.462264341571</v>
+      </c>
+      <c r="D62">
+        <v>3075.8832514294836</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63">
+        <v>228.52752700676317</v>
+      </c>
+      <c r="C63">
+        <v>603.43292448827015</v>
+      </c>
+      <c r="D63">
+        <v>843.72911644538272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>504.48529546776018</v>
+      </c>
+      <c r="C64">
+        <v>819.85851401321509</v>
+      </c>
+      <c r="D64">
+        <v>1343.6016248542744</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65">
+        <v>232.83936713896625</v>
+      </c>
+      <c r="C65">
+        <v>646.07836084786516</v>
+      </c>
+      <c r="D65">
+        <v>900.31530062383035</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66">
+        <v>225.29364690761085</v>
+      </c>
+      <c r="C66">
+        <v>635.41700175796643</v>
+      </c>
+      <c r="D66">
+        <v>875.68894951147649</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1347.450041313462</v>
+      </c>
+      <c r="C67">
+        <v>832.65214492109362</v>
+      </c>
+      <c r="D67">
+        <v>2225.0370887722534</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68">
+        <v>725.46710224316791</v>
+      </c>
+      <c r="C68">
+        <v>664.20267130069305</v>
+      </c>
+      <c r="D68">
+        <v>1435.6745547134087</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69">
+        <v>828.95126541604191</v>
+      </c>
+      <c r="C69">
+        <v>560.78748812867514</v>
+      </c>
+      <c r="D69">
+        <v>1426.1146270276151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70">
+        <v>805.23614468892492</v>
+      </c>
+      <c r="C70">
+        <v>1032.0195599022006</v>
+      </c>
+      <c r="D70">
+        <v>1883.2604857606732</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71">
+        <v>860.21210637451418</v>
+      </c>
+      <c r="C71">
+        <v>965.91913354482813</v>
+      </c>
+      <c r="D71">
+        <v>1873.2058997207398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>1176.0543960583898</v>
+      </c>
+      <c r="C72">
+        <v>1279.3630907878519</v>
+      </c>
+      <c r="D72">
+        <v>2519.6102047572381</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73">
+        <v>1294.6299996939742</v>
+      </c>
+      <c r="C73">
+        <v>1345.4635171452242</v>
+      </c>
+      <c r="D73">
+        <v>2710.7055065412947</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74">
+        <v>757.80590323469107</v>
+      </c>
+      <c r="C74">
+        <v>1451.0109721352221</v>
+      </c>
+      <c r="D74">
+        <v>2243.0529915891116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75">
+        <v>1943.5619395905376</v>
+      </c>
+      <c r="C75">
+        <v>599.16838085231063</v>
+      </c>
+      <c r="D75">
+        <v>2594.0844947716455</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76">
+        <v>1287.084279462619</v>
+      </c>
+      <c r="C76">
+        <v>364.61848087453779</v>
+      </c>
+      <c r="D76">
+        <v>1689.1485124519047</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77">
+        <v>1109.2208740092419</v>
+      </c>
+      <c r="C77">
+        <v>602.3667885792803</v>
+      </c>
+      <c r="D77">
+        <v>1749.0334147032702</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78">
+        <v>708.21974171435568</v>
+      </c>
+      <c r="C78">
+        <v>1057.6068217179575</v>
+      </c>
+      <c r="D78">
+        <v>1791.5036505967119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>